--- a/biology/Neurosciences/Neuromère/Neuromère.xlsx
+++ b/biology/Neurosciences/Neuromère/Neuromère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Neurom%C3%A8re</t>
+          <t>Neuromère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les neuromères sont des segments transitoires, à existence temporaire, qui constituent des zones du tube neural pendant le développement du système nerveux central des vertébrés. Au cours de la cinquième semaine du développement, on peut discerner seize[1] à vingt neuromères, selon les espèces animales.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les neuromères sont des segments transitoires, à existence temporaire, qui constituent des zones du tube neural pendant le développement du système nerveux central des vertébrés. Au cours de la cinquième semaine du développement, on peut discerner seize à vingt neuromères, selon les espèces animales.
 On distingue :
-six neuromères au niveau du prosencéphale : p1 à p6, chez l'embryon humain quatre[1] ;
-deux neuromères au niveau du mésencéphale[1] : m1 et m2 ;
-douze neuromères au niveau du rhombencéphale, appelés rhombomères, r0 à r11, chez l'embryon humain, huit complétés à dix à la 5e semaine de la grossesse[1].
-Ces neuromères sont, à l'instar des somites, l'expression de la métamérie chez les vertébrés[2].
+six neuromères au niveau du prosencéphale : p1 à p6, chez l'embryon humain quatre ;
+deux neuromères au niveau du mésencéphale : m1 et m2 ;
+douze neuromères au niveau du rhombencéphale, appelés rhombomères, r0 à r11, chez l'embryon humain, huit complétés à dix à la 5e semaine de la grossesse.
+Ces neuromères sont, à l'instar des somites, l'expression de la métamérie chez les vertébrés.
 </t>
         </is>
       </c>
